--- a/assetManagement/reportOuts/fuzzyMatches_HITL_20241003.xlsx
+++ b/assetManagement/reportOuts/fuzzyMatches_HITL_20241003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeduprey/repos/metadataVerification/assetManagement/reportOuts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{510188DB-969B-5E47-9EBE-831861852AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C14B2D0C-908B-3A4D-9587-E0AC6E8C1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36320" yWindow="-9960" windowWidth="33760" windowHeight="18120" xr2:uid="{D3F55A4A-1B46-8740-A2A9-3D1205BC3408}"/>
+    <workbookView xWindow="-37520" yWindow="-10580" windowWidth="35220" windowHeight="19140" xr2:uid="{D3F55A4A-1B46-8740-A2A9-3D1205BC3408}"/>
   </bookViews>
   <sheets>
     <sheet name="fuzzyMatches_HITL_20241003" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1397" uniqueCount="983">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1397" uniqueCount="984">
   <si>
     <t>referenceDesignator</t>
   </si>
@@ -630,15 +630,9 @@
     <t>ATAPL-70114-00006</t>
   </si>
   <si>
-    <t>['ATAPL-66662-00002', 'ATAPL-70114-00006']</t>
-  </si>
-  <si>
     <t>[0.31, 0.5, 0.5]</t>
   </si>
   <si>
-    <t>['16P71179-7205', 'AQS-7205', ' AQD-12227']</t>
-  </si>
-  <si>
     <t>CE04OSPS-SF01B-4F-PCO2WA102</t>
   </si>
   <si>
@@ -834,12 +828,6 @@
     <t>ATAPL-66662-00002</t>
   </si>
   <si>
-    <t>[0.38, 0.62]</t>
-  </si>
-  <si>
-    <t>['16P71179-7205', 'AQS-7205']</t>
-  </si>
-  <si>
     <t>RS01SBPS-SF01A-2D-PHSENA101</t>
   </si>
   <si>
@@ -2067,15 +2055,6 @@
     <t>ATOSU-68020-00005</t>
   </si>
   <si>
-    <t>['ATAPL-58345-00004', 'ATAPL-70114-00002', 'ATAPL-58345-00005', 'ATAPL-58345-00006']</t>
-  </si>
-  <si>
-    <t>[0.5, 0.5, 0.5, 0.38]</t>
-  </si>
-  <si>
-    <t>[' 23340', ' 23341', ' 23342', 'AQS-6334']</t>
-  </si>
-  <si>
     <t>Z:\For_Science\Mitch\Equipment_photos\SF01A\SF01A_2023\VELPTD102_2023\VELPTD102_20230816_154605_predeploy.JPG</t>
   </si>
   <si>
@@ -2202,15 +2181,6 @@
     <t>/Volumes/Data0/Archive/Cruise_data/RCA/Visions_23/ship/cruiseshare/For_Science/Mitch/Equipment_photos/LJ03A/HPIESA301_2023/HPIESA301_20230902_193118_predeploy.JPG</t>
   </si>
   <si>
-    <t>['ATAPL-58323-00001', 'PIRSN-FETCHA-00001']</t>
-  </si>
-  <si>
-    <t>[0.75, 0.27]</t>
-  </si>
-  <si>
-    <t>[' 307', '3404307-001']</t>
-  </si>
-  <si>
     <t>/Volumes/Data0/Archive/Cruise_data/RCA/Visions_23/ship/cruiseshare/For_Science/Mitch/Equipment_photos/LJ03A/CTDPFB301_DOSTAD301_OPTAAC303_2023/OPTAAC303_20230902_194810_predeploy.JPG</t>
   </si>
   <si>
@@ -2974,6 +2944,39 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>[ 'ATAPL-70114-00006']</t>
+  </si>
+  <si>
+    <t>[ 'AQS-7205', ' AQD-12227']</t>
+  </si>
+  <si>
+    <t>['ATAPL-66662-00002']</t>
+  </si>
+  <si>
+    <t>[ 'AQS-7205']</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>image SN typo</t>
+  </si>
+  <si>
+    <t>IES SN</t>
+  </si>
+  <si>
+    <t>['ATAPL-58323-00001']</t>
+  </si>
+  <si>
+    <t>[' 307']</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN confusion 05 or 1273	</t>
   </si>
 </sst>
 </file>
@@ -3116,7 +3119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3308,6 +3311,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3469,12 +3484,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3852,8 +3870,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5CD1D-CC85-4C4C-8EFD-84E97E5F7CE7}">
   <dimension ref="A1:M274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3864,10 +3882,11 @@
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="34.5" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -4071,11 +4090,14 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -4095,7 +4117,7 @@
         <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -4375,8 +4397,8 @@
       <c r="E17">
         <v>1233</v>
       </c>
-      <c r="M17" t="s">
-        <v>980</v>
+      <c r="M17" s="7" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -4657,7 +4679,7 @@
         <v>128</v>
       </c>
       <c r="M26" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -5097,19 +5119,19 @@
         <v>200</v>
       </c>
       <c r="G40" t="s">
+        <v>973</v>
+      </c>
+      <c r="H40" t="s">
         <v>201</v>
       </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
       <c r="I40" t="s">
-        <v>203</v>
+        <v>974</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>981</v>
+      <c r="M40" s="5" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -5117,25 +5139,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C41">
         <v>2022</v>
       </c>
       <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" t="s">
         <v>205</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>206</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>207</v>
-      </c>
-      <c r="G41" t="s">
-        <v>208</v>
-      </c>
-      <c r="I41" t="s">
-        <v>209</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -5150,25 +5172,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C42">
         <v>2022</v>
       </c>
       <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
         <v>211</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>212</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>213</v>
-      </c>
-      <c r="G42" t="s">
-        <v>214</v>
-      </c>
-      <c r="I42" t="s">
-        <v>215</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -5183,19 +5205,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C43">
         <v>2022</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G43" t="s">
         <v>133</v>
@@ -5216,25 +5238,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C44">
         <v>2022</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44">
         <v>3460</v>
       </c>
       <c r="F44" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" t="s">
         <v>221</v>
-      </c>
-      <c r="G44" t="s">
-        <v>222</v>
-      </c>
-      <c r="I44" t="s">
-        <v>223</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -5249,25 +5271,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C45">
         <v>2022</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E45">
         <v>3468</v>
       </c>
       <c r="F45" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="I45" t="s">
         <v>226</v>
-      </c>
-      <c r="G45" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" t="s">
-        <v>228</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -5282,22 +5304,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C46">
         <v>2022</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E46">
         <v>137</v>
       </c>
       <c r="G46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -5312,25 +5334,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C47">
         <v>2022</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E47">
         <v>23339</v>
       </c>
       <c r="F47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" t="s">
+        <v>234</v>
+      </c>
+      <c r="I47" t="s">
         <v>235</v>
-      </c>
-      <c r="G47" t="s">
-        <v>236</v>
-      </c>
-      <c r="I47" t="s">
-        <v>237</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
@@ -5345,25 +5367,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C48">
         <v>2022</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E48">
         <v>19073</v>
       </c>
       <c r="F48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" t="s">
+        <v>239</v>
+      </c>
+      <c r="I48" t="s">
         <v>240</v>
-      </c>
-      <c r="G48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" t="s">
-        <v>242</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -5378,16 +5400,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C49">
         <v>2022</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -5395,22 +5417,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C50">
         <v>2022</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E50">
         <v>1361</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -5425,25 +5447,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C51">
         <v>2022</v>
       </c>
       <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" t="s">
         <v>251</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>252</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>253</v>
-      </c>
-      <c r="G51" t="s">
-        <v>254</v>
-      </c>
-      <c r="I51" t="s">
-        <v>255</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
@@ -5458,25 +5480,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C52">
         <v>2022</v>
       </c>
       <c r="D52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" t="s">
         <v>257</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>258</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>259</v>
-      </c>
-      <c r="G52" t="s">
-        <v>260</v>
-      </c>
-      <c r="I52" t="s">
-        <v>261</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
@@ -5491,22 +5513,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C53">
         <v>2022</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E53">
         <v>1132</v>
       </c>
       <c r="G53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
@@ -5521,34 +5543,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C54">
         <v>2022</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E54">
         <v>-7205</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>201</v>
+        <v>975</v>
       </c>
       <c r="H54" t="s">
-        <v>269</v>
+        <v>571</v>
       </c>
       <c r="I54" t="s">
-        <v>270</v>
+        <v>976</v>
       </c>
       <c r="L54" t="b">
         <v>1</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>982</v>
+      <c r="M54" s="5" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -5556,25 +5578,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C55">
         <v>2022</v>
       </c>
       <c r="D55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E55" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" t="s">
+        <v>271</v>
+      </c>
+      <c r="I55" t="s">
         <v>272</v>
-      </c>
-      <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" t="s">
-        <v>274</v>
-      </c>
-      <c r="G55" t="s">
-        <v>275</v>
-      </c>
-      <c r="I55" t="s">
-        <v>276</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
@@ -5589,25 +5611,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C56">
         <v>2022</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E56">
         <v>1130</v>
       </c>
       <c r="F56" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I56" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -5622,25 +5644,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C57">
         <v>2022</v>
       </c>
       <c r="D57" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E57">
         <v>244</v>
       </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I57" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
@@ -5655,25 +5677,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C58">
         <v>2022</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E58">
         <v>380</v>
       </c>
       <c r="F58" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G58" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I58" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
@@ -5688,28 +5710,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C59">
         <v>2022</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E59">
         <v>6389</v>
       </c>
       <c r="F59" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G59" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H59" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I59" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L59" t="b">
         <v>1</v>
@@ -5721,25 +5743,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C60">
         <v>2022</v>
       </c>
       <c r="D60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" t="s">
+        <v>296</v>
+      </c>
+      <c r="F60" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" t="s">
         <v>299</v>
-      </c>
-      <c r="E60" t="s">
-        <v>300</v>
-      </c>
-      <c r="F60" t="s">
-        <v>301</v>
-      </c>
-      <c r="G60" t="s">
-        <v>302</v>
-      </c>
-      <c r="I60" t="s">
-        <v>303</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
@@ -5754,19 +5776,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C61">
         <v>2022</v>
       </c>
       <c r="D61" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -5774,22 +5796,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C62">
         <v>2022</v>
       </c>
       <c r="D62" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I62" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
@@ -5804,22 +5826,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C63">
         <v>2022</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
@@ -5834,16 +5856,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C64">
         <v>2022</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -5851,22 +5873,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C65">
         <v>2022</v>
       </c>
       <c r="D65" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E65">
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I65" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -5881,25 +5903,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C66">
         <v>2022</v>
       </c>
       <c r="D66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E66">
         <v>308</v>
       </c>
       <c r="G66" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H66" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
@@ -5911,25 +5933,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C67">
         <v>2022</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E67">
         <v>156</v>
       </c>
       <c r="F67" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G67" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I67" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
@@ -5944,28 +5966,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C68">
         <v>2022</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E68">
         <v>-50031</v>
       </c>
       <c r="F68" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G68" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I68" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L68" t="b">
         <v>1</v>
@@ -5977,25 +5999,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C69">
         <v>2022</v>
       </c>
       <c r="D69" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E69">
         <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I69" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
@@ -6010,25 +6032,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C70">
         <v>2022</v>
       </c>
       <c r="D70" t="s">
+        <v>339</v>
+      </c>
+      <c r="E70" t="s">
+        <v>340</v>
+      </c>
+      <c r="F70" t="s">
+        <v>341</v>
+      </c>
+      <c r="G70" t="s">
+        <v>342</v>
+      </c>
+      <c r="I70" t="s">
         <v>343</v>
-      </c>
-      <c r="E70" t="s">
-        <v>344</v>
-      </c>
-      <c r="F70" t="s">
-        <v>345</v>
-      </c>
-      <c r="G70" t="s">
-        <v>346</v>
-      </c>
-      <c r="I70" t="s">
-        <v>347</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
@@ -6043,25 +6065,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C71">
         <v>2022</v>
       </c>
       <c r="D71" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E71">
         <v>1214</v>
       </c>
       <c r="F71" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G71" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I71" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J71" t="b">
         <v>1</v>
@@ -6076,25 +6098,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C72">
         <v>2022</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E72">
         <v>3099</v>
       </c>
       <c r="F72" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G72" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I72" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -6109,25 +6131,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C73">
         <v>2022</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E73">
         <v>3098</v>
       </c>
       <c r="F73" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G73" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I73" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J73" t="b">
         <v>1</v>
@@ -6142,25 +6164,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C74">
         <v>2022</v>
       </c>
       <c r="D74" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E74">
         <v>458</v>
       </c>
       <c r="F74" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G74" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I74" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
@@ -6175,22 +6197,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C75">
         <v>2022</v>
       </c>
       <c r="D75" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E75">
         <v>18980</v>
       </c>
       <c r="G75" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I75" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J75" t="b">
         <v>1</v>
@@ -6205,25 +6227,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C76">
         <v>2022</v>
       </c>
       <c r="D76" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E76">
         <v>19075</v>
       </c>
       <c r="F76" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G76" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I76" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -6238,16 +6260,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C77">
         <v>2022</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F77" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -6255,22 +6277,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C78">
         <v>2022</v>
       </c>
       <c r="D78" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E78">
         <v>1272</v>
       </c>
       <c r="G78" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I78" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
@@ -6285,22 +6307,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C79">
         <v>2022</v>
       </c>
       <c r="D79" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E79" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G79" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I79" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J79" t="b">
         <v>1</v>
@@ -6315,13 +6337,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C80">
         <v>2022</v>
       </c>
       <c r="D80" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E80">
         <v>1794559</v>
@@ -6332,25 +6354,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C81">
         <v>2022</v>
       </c>
       <c r="D81" t="s">
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>389</v>
+      </c>
+      <c r="F81" t="s">
+        <v>390</v>
+      </c>
+      <c r="G81" t="s">
+        <v>391</v>
+      </c>
+      <c r="I81" t="s">
         <v>392</v>
-      </c>
-      <c r="E81" t="s">
-        <v>393</v>
-      </c>
-      <c r="F81" t="s">
-        <v>394</v>
-      </c>
-      <c r="G81" t="s">
-        <v>395</v>
-      </c>
-      <c r="I81" t="s">
-        <v>396</v>
       </c>
       <c r="J81" t="b">
         <v>1</v>
@@ -6365,25 +6387,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C82">
         <v>2022</v>
       </c>
       <c r="D82" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E82">
         <v>1131</v>
       </c>
       <c r="F82" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G82" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I82" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
@@ -6398,16 +6420,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C83">
         <v>2022</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E83" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -6415,13 +6437,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C84">
         <v>2022</v>
       </c>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E84">
         <v>1794924</v>
@@ -6432,25 +6454,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C85">
         <v>2022</v>
       </c>
       <c r="D85" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" t="s">
+        <v>405</v>
+      </c>
+      <c r="F85" t="s">
+        <v>406</v>
+      </c>
+      <c r="G85" t="s">
+        <v>407</v>
+      </c>
+      <c r="I85" t="s">
         <v>408</v>
-      </c>
-      <c r="E85" t="s">
-        <v>409</v>
-      </c>
-      <c r="F85" t="s">
-        <v>410</v>
-      </c>
-      <c r="G85" t="s">
-        <v>411</v>
-      </c>
-      <c r="I85" t="s">
-        <v>412</v>
       </c>
       <c r="J85" t="b">
         <v>1</v>
@@ -6465,25 +6487,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C86">
         <v>2022</v>
       </c>
       <c r="D86" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E86">
         <v>5967</v>
       </c>
       <c r="F86" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G86" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I86" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -6498,25 +6520,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C87">
         <v>2022</v>
       </c>
       <c r="D87" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E87">
         <v>134</v>
       </c>
       <c r="F87" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G87" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I87" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J87" t="b">
         <v>1</v>
@@ -6531,25 +6553,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C88">
         <v>2022</v>
       </c>
       <c r="D88" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E88">
         <v>379</v>
       </c>
       <c r="F88" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I88" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J88" t="b">
         <v>1</v>
@@ -6564,28 +6586,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C89">
         <v>2022</v>
       </c>
       <c r="D89" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E89">
         <v>6334</v>
       </c>
       <c r="F89" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G89" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H89" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I89" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L89" t="b">
         <v>1</v>
@@ -6597,25 +6619,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C90">
         <v>2022</v>
       </c>
       <c r="D90" t="s">
+        <v>430</v>
+      </c>
+      <c r="E90" t="s">
+        <v>431</v>
+      </c>
+      <c r="F90" t="s">
+        <v>432</v>
+      </c>
+      <c r="G90" t="s">
+        <v>433</v>
+      </c>
+      <c r="I90" t="s">
         <v>434</v>
-      </c>
-      <c r="E90" t="s">
-        <v>435</v>
-      </c>
-      <c r="F90" t="s">
-        <v>436</v>
-      </c>
-      <c r="G90" t="s">
-        <v>437</v>
-      </c>
-      <c r="I90" t="s">
-        <v>438</v>
       </c>
       <c r="J90" t="b">
         <v>1</v>
@@ -6630,13 +6652,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C91">
         <v>2022</v>
       </c>
       <c r="D91" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E91">
         <v>2595170</v>
@@ -6647,25 +6669,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C92">
         <v>2022</v>
       </c>
       <c r="D92" t="s">
+        <v>438</v>
+      </c>
+      <c r="E92" t="s">
+        <v>439</v>
+      </c>
+      <c r="F92" t="s">
+        <v>440</v>
+      </c>
+      <c r="G92" t="s">
+        <v>441</v>
+      </c>
+      <c r="I92" t="s">
         <v>442</v>
-      </c>
-      <c r="E92" t="s">
-        <v>443</v>
-      </c>
-      <c r="F92" t="s">
-        <v>444</v>
-      </c>
-      <c r="G92" t="s">
-        <v>445</v>
-      </c>
-      <c r="I92" t="s">
-        <v>446</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
@@ -6680,22 +6702,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C93">
         <v>2022</v>
       </c>
       <c r="D93" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E93" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F93" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G93" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
@@ -6710,19 +6732,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C94">
         <v>2022</v>
       </c>
       <c r="D94" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F94" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G94" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
@@ -6737,22 +6759,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C95">
         <v>2022</v>
       </c>
       <c r="D95" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E95" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F95" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G95" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
@@ -6773,19 +6795,19 @@
         <v>2023</v>
       </c>
       <c r="D96" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E96">
         <v>18493</v>
       </c>
       <c r="F96" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G96" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I96" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
@@ -6806,19 +6828,19 @@
         <v>2023</v>
       </c>
       <c r="D97" t="s">
+        <v>457</v>
+      </c>
+      <c r="E97" t="s">
+        <v>458</v>
+      </c>
+      <c r="F97" t="s">
+        <v>459</v>
+      </c>
+      <c r="G97" t="s">
+        <v>460</v>
+      </c>
+      <c r="I97" t="s">
         <v>461</v>
-      </c>
-      <c r="E97" t="s">
-        <v>462</v>
-      </c>
-      <c r="F97" t="s">
-        <v>463</v>
-      </c>
-      <c r="G97" t="s">
-        <v>464</v>
-      </c>
-      <c r="I97" t="s">
-        <v>465</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
@@ -6839,19 +6861,19 @@
         <v>2023</v>
       </c>
       <c r="D98" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E98">
         <v>311</v>
       </c>
       <c r="F98" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G98" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I98" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
@@ -6872,22 +6894,22 @@
         <v>2023</v>
       </c>
       <c r="D99" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E99">
         <v>13934</v>
       </c>
       <c r="F99" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G99" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H99" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I99" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L99" t="b">
         <v>1</v>
@@ -6905,19 +6927,19 @@
         <v>2023</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E100">
         <v>221</v>
       </c>
       <c r="F100" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G100" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I100" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
@@ -6938,19 +6960,19 @@
         <v>2023</v>
       </c>
       <c r="D101" t="s">
+        <v>474</v>
+      </c>
+      <c r="E101" t="s">
+        <v>475</v>
+      </c>
+      <c r="F101" t="s">
+        <v>476</v>
+      </c>
+      <c r="G101" t="s">
+        <v>477</v>
+      </c>
+      <c r="I101" t="s">
         <v>478</v>
-      </c>
-      <c r="E101" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" t="s">
-        <v>480</v>
-      </c>
-      <c r="G101" t="s">
-        <v>481</v>
-      </c>
-      <c r="I101" t="s">
-        <v>482</v>
       </c>
       <c r="J101" t="b">
         <v>1</v>
@@ -6971,19 +6993,19 @@
         <v>2023</v>
       </c>
       <c r="D102" t="s">
+        <v>479</v>
+      </c>
+      <c r="E102" t="s">
+        <v>480</v>
+      </c>
+      <c r="F102" t="s">
+        <v>481</v>
+      </c>
+      <c r="G102" t="s">
+        <v>482</v>
+      </c>
+      <c r="I102" t="s">
         <v>483</v>
-      </c>
-      <c r="E102" t="s">
-        <v>484</v>
-      </c>
-      <c r="F102" t="s">
-        <v>485</v>
-      </c>
-      <c r="G102" t="s">
-        <v>486</v>
-      </c>
-      <c r="I102" t="s">
-        <v>487</v>
       </c>
       <c r="J102" t="b">
         <v>1</v>
@@ -7004,16 +7026,16 @@
         <v>2023</v>
       </c>
       <c r="D103" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E103">
         <v>141</v>
       </c>
       <c r="G103" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I103" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
@@ -7034,19 +7056,19 @@
         <v>2023</v>
       </c>
       <c r="D104" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G104" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I104" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J104" t="b">
         <v>1</v>
@@ -7067,16 +7089,16 @@
         <v>2023</v>
       </c>
       <c r="D105" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E105">
         <v>18153</v>
       </c>
       <c r="G105" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I105" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J105" t="b">
         <v>1</v>
@@ -7097,22 +7119,22 @@
         <v>2023</v>
       </c>
       <c r="D106" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E106">
         <v>7249</v>
       </c>
       <c r="F106" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G106" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H106" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I106" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L106" t="b">
         <v>1</v>
@@ -7130,19 +7152,19 @@
         <v>2023</v>
       </c>
       <c r="D107" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E107">
         <v>381</v>
       </c>
       <c r="F107" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G107" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I107" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
@@ -7163,22 +7185,22 @@
         <v>2023</v>
       </c>
       <c r="D108" t="s">
+        <v>501</v>
+      </c>
+      <c r="E108" t="s">
+        <v>502</v>
+      </c>
+      <c r="F108" t="s">
+        <v>503</v>
+      </c>
+      <c r="G108" t="s">
+        <v>504</v>
+      </c>
+      <c r="H108" t="s">
         <v>505</v>
       </c>
-      <c r="E108" t="s">
+      <c r="I108" t="s">
         <v>506</v>
-      </c>
-      <c r="F108" t="s">
-        <v>507</v>
-      </c>
-      <c r="G108" t="s">
-        <v>508</v>
-      </c>
-      <c r="H108" t="s">
-        <v>509</v>
-      </c>
-      <c r="I108" t="s">
-        <v>510</v>
       </c>
       <c r="L108" t="b">
         <v>1</v>
@@ -7196,19 +7218,19 @@
         <v>2023</v>
       </c>
       <c r="D109" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E109">
         <v>140</v>
       </c>
       <c r="F109" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G109" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I109" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
@@ -7229,19 +7251,19 @@
         <v>2023</v>
       </c>
       <c r="D110" t="s">
+        <v>511</v>
+      </c>
+      <c r="E110" t="s">
+        <v>512</v>
+      </c>
+      <c r="F110" t="s">
+        <v>513</v>
+      </c>
+      <c r="G110" t="s">
+        <v>514</v>
+      </c>
+      <c r="I110" t="s">
         <v>515</v>
-      </c>
-      <c r="E110" t="s">
-        <v>516</v>
-      </c>
-      <c r="F110" t="s">
-        <v>517</v>
-      </c>
-      <c r="G110" t="s">
-        <v>518</v>
-      </c>
-      <c r="I110" t="s">
-        <v>519</v>
       </c>
       <c r="J110" t="b">
         <v>1</v>
@@ -7262,19 +7284,19 @@
         <v>2023</v>
       </c>
       <c r="D111" t="s">
+        <v>516</v>
+      </c>
+      <c r="E111" t="s">
+        <v>517</v>
+      </c>
+      <c r="F111" t="s">
+        <v>518</v>
+      </c>
+      <c r="G111" t="s">
+        <v>519</v>
+      </c>
+      <c r="I111" t="s">
         <v>520</v>
-      </c>
-      <c r="E111" t="s">
-        <v>521</v>
-      </c>
-      <c r="F111" t="s">
-        <v>522</v>
-      </c>
-      <c r="G111" t="s">
-        <v>523</v>
-      </c>
-      <c r="I111" t="s">
-        <v>524</v>
       </c>
       <c r="J111" t="b">
         <v>1</v>
@@ -7295,16 +7317,16 @@
         <v>2023</v>
       </c>
       <c r="D112" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E112">
         <v>1250</v>
       </c>
       <c r="G112" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I112" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J112" t="b">
         <v>1</v>
@@ -7325,10 +7347,10 @@
         <v>2023</v>
       </c>
       <c r="D113" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F113" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -7342,16 +7364,16 @@
         <v>2023</v>
       </c>
       <c r="D114" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E114" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
@@ -7372,13 +7394,13 @@
         <v>2023</v>
       </c>
       <c r="D115" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F115" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G115" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
@@ -7399,19 +7421,19 @@
         <v>2023</v>
       </c>
       <c r="D116" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E116">
         <v>3399</v>
       </c>
       <c r="F116" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G116" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I116" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
@@ -7426,25 +7448,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C117">
         <v>2023</v>
       </c>
       <c r="D117" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E117">
         <v>3762</v>
       </c>
       <c r="F117" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G117" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I117" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -7465,7 +7487,7 @@
         <v>2023</v>
       </c>
       <c r="D118" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E118">
         <v>125</v>
@@ -7474,10 +7496,10 @@
         <v>147</v>
       </c>
       <c r="G118" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I118" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
@@ -7492,19 +7514,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C119">
         <v>2023</v>
       </c>
       <c r="D119" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E119">
         <v>171</v>
       </c>
       <c r="F119" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -7518,19 +7540,19 @@
         <v>2023</v>
       </c>
       <c r="D120" t="s">
+        <v>548</v>
+      </c>
+      <c r="E120" t="s">
+        <v>549</v>
+      </c>
+      <c r="F120" t="s">
+        <v>550</v>
+      </c>
+      <c r="G120" t="s">
+        <v>551</v>
+      </c>
+      <c r="I120" t="s">
         <v>552</v>
-      </c>
-      <c r="E120" t="s">
-        <v>553</v>
-      </c>
-      <c r="F120" t="s">
-        <v>554</v>
-      </c>
-      <c r="G120" t="s">
-        <v>555</v>
-      </c>
-      <c r="I120" t="s">
-        <v>556</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
@@ -7545,25 +7567,25 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C121">
         <v>2023</v>
       </c>
       <c r="D121" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E121">
         <v>316</v>
       </c>
       <c r="F121" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G121" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I121" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
@@ -7584,19 +7606,19 @@
         <v>2023</v>
       </c>
       <c r="D122" t="s">
+        <v>558</v>
+      </c>
+      <c r="E122" t="s">
+        <v>559</v>
+      </c>
+      <c r="F122" t="s">
+        <v>560</v>
+      </c>
+      <c r="G122" t="s">
+        <v>561</v>
+      </c>
+      <c r="I122" t="s">
         <v>562</v>
-      </c>
-      <c r="E122" t="s">
-        <v>563</v>
-      </c>
-      <c r="F122" t="s">
-        <v>564</v>
-      </c>
-      <c r="G122" t="s">
-        <v>565</v>
-      </c>
-      <c r="I122" t="s">
-        <v>566</v>
       </c>
       <c r="J122" t="b">
         <v>1</v>
@@ -7617,19 +7639,19 @@
         <v>2023</v>
       </c>
       <c r="D123" t="s">
+        <v>563</v>
+      </c>
+      <c r="E123" t="s">
+        <v>564</v>
+      </c>
+      <c r="F123" t="s">
+        <v>565</v>
+      </c>
+      <c r="G123" t="s">
+        <v>566</v>
+      </c>
+      <c r="I123" t="s">
         <v>567</v>
-      </c>
-      <c r="E123" t="s">
-        <v>568</v>
-      </c>
-      <c r="F123" t="s">
-        <v>569</v>
-      </c>
-      <c r="G123" t="s">
-        <v>570</v>
-      </c>
-      <c r="I123" t="s">
-        <v>571</v>
       </c>
       <c r="J123" t="b">
         <v>1</v>
@@ -7650,22 +7672,22 @@
         <v>2023</v>
       </c>
       <c r="D124" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E124">
         <v>50019</v>
       </c>
       <c r="F124" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G124" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H124" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I124" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L124" t="b">
         <v>1</v>
@@ -7683,16 +7705,16 @@
         <v>2023</v>
       </c>
       <c r="D125" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E125" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G125" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="I125" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -7713,19 +7735,19 @@
         <v>2023</v>
       </c>
       <c r="D126" t="s">
+        <v>577</v>
+      </c>
+      <c r="E126" t="s">
+        <v>578</v>
+      </c>
+      <c r="F126" t="s">
+        <v>579</v>
+      </c>
+      <c r="G126" t="s">
+        <v>580</v>
+      </c>
+      <c r="I126" t="s">
         <v>581</v>
-      </c>
-      <c r="E126" t="s">
-        <v>582</v>
-      </c>
-      <c r="F126" t="s">
-        <v>583</v>
-      </c>
-      <c r="G126" t="s">
-        <v>584</v>
-      </c>
-      <c r="I126" t="s">
-        <v>585</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -7746,19 +7768,19 @@
         <v>2023</v>
       </c>
       <c r="D127" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E127">
         <v>1289</v>
       </c>
       <c r="F127" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G127" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I127" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
@@ -7779,19 +7801,19 @@
         <v>2023</v>
       </c>
       <c r="D128" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E128">
         <v>166</v>
       </c>
       <c r="F128" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G128" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I128" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -7812,19 +7834,19 @@
         <v>2023</v>
       </c>
       <c r="D129" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E129">
         <v>625</v>
       </c>
       <c r="F129" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G129" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I129" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J129" t="b">
         <v>1</v>
@@ -7845,22 +7867,22 @@
         <v>2023</v>
       </c>
       <c r="D130" t="s">
+        <v>594</v>
+      </c>
+      <c r="E130" t="s">
+        <v>595</v>
+      </c>
+      <c r="F130" t="s">
+        <v>596</v>
+      </c>
+      <c r="G130" t="s">
+        <v>597</v>
+      </c>
+      <c r="H130" t="s">
         <v>598</v>
       </c>
-      <c r="E130" t="s">
+      <c r="I130" t="s">
         <v>599</v>
-      </c>
-      <c r="F130" t="s">
-        <v>600</v>
-      </c>
-      <c r="G130" t="s">
-        <v>601</v>
-      </c>
-      <c r="H130" t="s">
-        <v>602</v>
-      </c>
-      <c r="I130" t="s">
-        <v>603</v>
       </c>
       <c r="L130" t="b">
         <v>1</v>
@@ -7872,25 +7894,25 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C131">
         <v>2023</v>
       </c>
       <c r="D131" t="s">
+        <v>600</v>
+      </c>
+      <c r="E131" t="s">
+        <v>601</v>
+      </c>
+      <c r="F131" t="s">
+        <v>602</v>
+      </c>
+      <c r="G131" t="s">
+        <v>603</v>
+      </c>
+      <c r="I131" t="s">
         <v>604</v>
-      </c>
-      <c r="E131" t="s">
-        <v>605</v>
-      </c>
-      <c r="F131" t="s">
-        <v>606</v>
-      </c>
-      <c r="G131" t="s">
-        <v>607</v>
-      </c>
-      <c r="I131" t="s">
-        <v>608</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
@@ -7905,16 +7927,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C132">
         <v>2023</v>
       </c>
       <c r="D132" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F132" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -7922,25 +7944,25 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C133">
         <v>2023</v>
       </c>
       <c r="D133" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E133">
         <v>3717</v>
       </c>
       <c r="F133" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G133" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I133" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J133" t="b">
         <v>1</v>
@@ -7955,25 +7977,25 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C134">
         <v>2023</v>
       </c>
       <c r="D134" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E134">
         <v>3397</v>
       </c>
       <c r="F134" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G134" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I134" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
@@ -7988,25 +8010,25 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C135">
         <v>2023</v>
       </c>
       <c r="D135" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E135">
         <v>317</v>
       </c>
       <c r="F135" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G135" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I135" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
@@ -8021,25 +8043,25 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C136">
         <v>2023</v>
       </c>
       <c r="D136" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E136">
         <v>23338</v>
       </c>
       <c r="F136" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G136" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I136" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
@@ -8054,25 +8076,25 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C137">
         <v>2023</v>
       </c>
       <c r="D137" t="s">
+        <v>623</v>
+      </c>
+      <c r="E137" t="s">
+        <v>624</v>
+      </c>
+      <c r="F137" t="s">
+        <v>625</v>
+      </c>
+      <c r="G137" t="s">
+        <v>626</v>
+      </c>
+      <c r="I137" t="s">
         <v>627</v>
-      </c>
-      <c r="E137" t="s">
-        <v>628</v>
-      </c>
-      <c r="F137" t="s">
-        <v>629</v>
-      </c>
-      <c r="G137" t="s">
-        <v>630</v>
-      </c>
-      <c r="I137" t="s">
-        <v>631</v>
       </c>
       <c r="J137" t="b">
         <v>1</v>
@@ -8087,28 +8109,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C138">
         <v>2023</v>
       </c>
       <c r="D138" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E138">
         <v>18838</v>
       </c>
       <c r="F138" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G138" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H138" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I138" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L138" t="b">
         <v>1</v>
@@ -8120,13 +8142,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C139">
         <v>2023</v>
       </c>
       <c r="D139" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E139">
         <v>1292</v>
@@ -8150,25 +8172,25 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C140">
         <v>2023</v>
       </c>
       <c r="D140" t="s">
+        <v>633</v>
+      </c>
+      <c r="E140" t="s">
+        <v>634</v>
+      </c>
+      <c r="F140" t="s">
+        <v>635</v>
+      </c>
+      <c r="G140" t="s">
+        <v>636</v>
+      </c>
+      <c r="I140" t="s">
         <v>637</v>
-      </c>
-      <c r="E140" t="s">
-        <v>638</v>
-      </c>
-      <c r="F140" t="s">
-        <v>639</v>
-      </c>
-      <c r="G140" t="s">
-        <v>640</v>
-      </c>
-      <c r="I140" t="s">
-        <v>641</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
@@ -8183,25 +8205,25 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C141">
         <v>2023</v>
       </c>
       <c r="D141" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E141">
         <v>472</v>
       </c>
       <c r="F141" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G141" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="I141" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
@@ -8216,25 +8238,25 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C142">
         <v>2023</v>
       </c>
       <c r="D142" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E142" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F142" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G142" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I142" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
@@ -8249,25 +8271,25 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C143">
         <v>2023</v>
       </c>
       <c r="D143" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E143">
         <v>1129</v>
       </c>
       <c r="F143" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G143" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I143" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J143" t="b">
         <v>1</v>
@@ -8282,25 +8304,25 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C144">
         <v>2023</v>
       </c>
       <c r="D144" t="s">
+        <v>651</v>
+      </c>
+      <c r="E144" t="s">
+        <v>652</v>
+      </c>
+      <c r="F144" t="s">
+        <v>653</v>
+      </c>
+      <c r="G144" t="s">
+        <v>654</v>
+      </c>
+      <c r="I144" t="s">
         <v>655</v>
-      </c>
-      <c r="E144" t="s">
-        <v>656</v>
-      </c>
-      <c r="F144" t="s">
-        <v>657</v>
-      </c>
-      <c r="G144" t="s">
-        <v>658</v>
-      </c>
-      <c r="I144" t="s">
-        <v>659</v>
       </c>
       <c r="J144" t="b">
         <v>1</v>
@@ -8315,22 +8337,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C145">
         <v>2023</v>
       </c>
       <c r="D145" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E145" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G145" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I145" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J145" t="b">
         <v>1</v>
@@ -8345,25 +8367,25 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C146">
         <v>2023</v>
       </c>
       <c r="D146" t="s">
+        <v>661</v>
+      </c>
+      <c r="E146" t="s">
+        <v>662</v>
+      </c>
+      <c r="F146" t="s">
+        <v>663</v>
+      </c>
+      <c r="G146" t="s">
+        <v>664</v>
+      </c>
+      <c r="I146" t="s">
         <v>665</v>
-      </c>
-      <c r="E146" t="s">
-        <v>666</v>
-      </c>
-      <c r="F146" t="s">
-        <v>667</v>
-      </c>
-      <c r="G146" t="s">
-        <v>668</v>
-      </c>
-      <c r="I146" t="s">
-        <v>669</v>
       </c>
       <c r="J146" t="b">
         <v>1</v>
@@ -8378,25 +8400,25 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C147">
         <v>2023</v>
       </c>
       <c r="D147" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E147">
         <v>1150</v>
       </c>
       <c r="F147" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G147" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I147" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J147" t="b">
         <v>1</v>
@@ -8411,25 +8433,25 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C148">
         <v>2023</v>
       </c>
       <c r="D148" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E148">
         <v>223</v>
       </c>
       <c r="F148" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G148" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="I148" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J148" t="b">
         <v>1</v>
@@ -8444,31 +8466,31 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C149">
         <v>2023</v>
       </c>
       <c r="D149" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E149">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F149" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G149" t="s">
-        <v>680</v>
-      </c>
-      <c r="H149" t="s">
-        <v>681</v>
+        <v>912</v>
       </c>
       <c r="I149" t="s">
-        <v>682</v>
+        <v>913</v>
       </c>
       <c r="L149" t="b">
         <v>1</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -8476,28 +8498,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C150">
         <v>2023</v>
       </c>
       <c r="D150" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="E150">
         <v>6802</v>
       </c>
       <c r="F150" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G150" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I150" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="L150" t="b">
         <v>1</v>
@@ -8509,25 +8531,25 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C151">
         <v>2023</v>
       </c>
       <c r="D151" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E151" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F151" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="G151" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I151" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="J151" t="b">
         <v>1</v>
@@ -8542,16 +8564,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C152">
         <v>2023</v>
       </c>
       <c r="D152" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E152" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -8565,7 +8587,7 @@
         <v>2023</v>
       </c>
       <c r="D153" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E153">
         <v>18813</v>
@@ -8595,10 +8617,10 @@
         <v>2023</v>
       </c>
       <c r="D154" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E154" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -8612,10 +8634,10 @@
         <v>2023</v>
       </c>
       <c r="D155" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E155" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -8629,7 +8651,7 @@
         <v>2023</v>
       </c>
       <c r="D156" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E156" t="s">
         <v>32</v>
@@ -8640,25 +8662,25 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C157">
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G157" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I157" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J157" t="b">
         <v>1</v>
@@ -8673,22 +8695,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C158">
         <v>2023</v>
       </c>
       <c r="D158" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E158">
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I158" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J158" t="b">
         <v>1</v>
@@ -8703,22 +8725,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C159">
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E159">
         <v>3</v>
       </c>
       <c r="G159" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
@@ -8733,22 +8755,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C160">
         <v>2023</v>
       </c>
       <c r="D160" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E160" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F160" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G160" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="K160" t="b">
         <v>1</v>
@@ -8769,16 +8791,16 @@
         <v>2023</v>
       </c>
       <c r="D161" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E161">
         <v>18975</v>
       </c>
       <c r="G161" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="I161" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J161" t="b">
         <v>1</v>
@@ -8793,22 +8815,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C162">
         <v>2023</v>
       </c>
       <c r="D162" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E162">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="I162" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="J162" t="b">
         <v>1</v>
@@ -8823,25 +8845,25 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C163">
         <v>2023</v>
       </c>
       <c r="D163" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E163" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F163" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G163" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="I163" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="J163" t="b">
         <v>1</v>
@@ -8862,13 +8884,13 @@
         <v>2023</v>
       </c>
       <c r="D164" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E164" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F164" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -8876,28 +8898,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C165">
         <v>2023</v>
       </c>
       <c r="D165" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E165">
         <v>307</v>
       </c>
       <c r="G165" t="s">
-        <v>725</v>
-      </c>
-      <c r="H165" t="s">
-        <v>726</v>
+        <v>980</v>
       </c>
       <c r="I165" t="s">
-        <v>727</v>
+        <v>981</v>
       </c>
       <c r="L165" t="b">
         <v>1</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -8905,19 +8927,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C166">
         <v>2023</v>
       </c>
       <c r="D166" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="F166" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G166" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="K166" t="b">
         <v>1</v>
@@ -8932,19 +8954,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C167">
         <v>2023</v>
       </c>
       <c r="D167" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F167" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G167" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="K167" t="b">
         <v>1</v>
@@ -8959,19 +8981,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C168">
         <v>2023</v>
       </c>
       <c r="D168" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F168" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G168" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="K168" t="b">
         <v>1</v>
@@ -8986,25 +9008,25 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C169">
         <v>2023</v>
       </c>
       <c r="D169" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E169" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F169" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G169" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I169" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="J169" t="b">
         <v>1</v>
@@ -9019,25 +9041,25 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C170">
         <v>2023</v>
       </c>
       <c r="D170" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E170">
         <v>1130</v>
       </c>
       <c r="F170" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G170" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I170" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J170" t="b">
         <v>1</v>
@@ -9052,25 +9074,25 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C171">
         <v>2023</v>
       </c>
       <c r="D171" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E171">
         <v>3716</v>
       </c>
       <c r="F171" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G171" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I171" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="J171" t="b">
         <v>1</v>
@@ -9085,25 +9107,25 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C172">
         <v>2023</v>
       </c>
       <c r="D172" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E172">
         <v>3637</v>
       </c>
       <c r="F172" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G172" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I172" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
@@ -9118,19 +9140,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C173">
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="F173" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="G173" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="K173" t="b">
         <v>1</v>
@@ -9145,25 +9167,25 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C174">
         <v>2023</v>
       </c>
       <c r="D174" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E174">
         <v>18974</v>
       </c>
       <c r="F174" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G174" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="I174" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="J174" t="b">
         <v>1</v>
@@ -9178,28 +9200,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C175">
         <v>2023</v>
       </c>
       <c r="D175" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="E175">
         <v>61247</v>
       </c>
       <c r="F175" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G175" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="H175" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="I175" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="L175" t="b">
         <v>1</v>
@@ -9211,28 +9233,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C176">
         <v>2023</v>
       </c>
       <c r="D176" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="E176" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F176" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G176" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="H176" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I176" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="L176" t="b">
         <v>1</v>
@@ -9244,22 +9266,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C177">
         <v>2023</v>
       </c>
       <c r="D177" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="E177">
         <v>1362</v>
       </c>
       <c r="G177" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="I177" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="J177" t="b">
         <v>1</v>
@@ -9274,22 +9296,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C178">
         <v>2023</v>
       </c>
       <c r="D178" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="E178" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="G178" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="I178" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="J178" t="b">
         <v>1</v>
@@ -9304,25 +9326,25 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C179">
         <v>2023</v>
       </c>
       <c r="D179" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="E179">
         <v>473</v>
       </c>
       <c r="F179" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="G179" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="I179" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="J179" t="b">
         <v>1</v>
@@ -9337,25 +9359,25 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C180">
         <v>2023</v>
       </c>
       <c r="D180" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="E180" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F180" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G180" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="I180" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="J180" t="b">
         <v>1</v>
@@ -9370,25 +9392,25 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C181">
         <v>2023</v>
       </c>
       <c r="D181" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="E181">
         <v>1294</v>
       </c>
       <c r="F181" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G181" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="I181" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="J181" t="b">
         <v>1</v>
@@ -9403,25 +9425,25 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C182">
         <v>2023</v>
       </c>
       <c r="D182" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="E182" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="F182" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G182" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="I182" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="J182" t="b">
         <v>1</v>
@@ -9436,25 +9458,25 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C183">
         <v>2023</v>
       </c>
       <c r="D183" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="E183" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F183" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G183" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="I183" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="J183" t="b">
         <v>1</v>
@@ -9469,22 +9491,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C184">
         <v>2023</v>
       </c>
       <c r="D184" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="E184">
         <v>1293</v>
       </c>
       <c r="G184" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="I184" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="J184" t="b">
         <v>1</v>
@@ -9499,22 +9521,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C185">
         <v>2023</v>
       </c>
       <c r="D185" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="E185">
         <v>251</v>
       </c>
       <c r="G185" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="I185" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="J185" t="b">
         <v>1</v>
@@ -9529,22 +9551,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C186">
         <v>2023</v>
       </c>
       <c r="D186" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="E186">
         <v>1402</v>
       </c>
       <c r="G186" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="I186" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="J186" t="b">
         <v>1</v>
@@ -9559,25 +9581,25 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C187">
         <v>2023</v>
       </c>
       <c r="D187" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="E187">
         <v>293</v>
       </c>
       <c r="F187" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="G187" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="I187" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="J187" t="b">
         <v>1</v>
@@ -9592,16 +9614,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C188">
         <v>2023</v>
       </c>
       <c r="D188" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="E188" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
@@ -9609,28 +9631,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C189">
         <v>2023</v>
       </c>
       <c r="D189" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="E189" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F189" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G189" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="H189" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="I189" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="L189" t="b">
         <v>1</v>
@@ -9642,25 +9664,25 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C190">
         <v>2023</v>
       </c>
       <c r="D190" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="E190" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="F190" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="G190" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="I190" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="J190" t="b">
         <v>1</v>
@@ -9675,25 +9697,25 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C191">
         <v>2023</v>
       </c>
       <c r="D191" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="E191" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F191" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="G191" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="I191" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="J191" t="b">
         <v>1</v>
@@ -9708,25 +9730,25 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C192">
         <v>2023</v>
       </c>
       <c r="D192" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E192" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="F192" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="G192" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="I192" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="J192" t="b">
         <v>1</v>
@@ -9747,13 +9769,13 @@
         <v>2023</v>
       </c>
       <c r="D193" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E193">
         <v>301</v>
       </c>
       <c r="F193" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
@@ -9761,19 +9783,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C194">
         <v>2023</v>
       </c>
       <c r="D194" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="F194" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="G194" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="K194" t="b">
         <v>1</v>
@@ -9788,22 +9810,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C195">
         <v>2023</v>
       </c>
       <c r="D195" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E195" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="G195" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="I195" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="J195" t="b">
         <v>1</v>
@@ -9818,22 +9840,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C196">
         <v>2023</v>
       </c>
       <c r="D196" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E196">
         <v>2</v>
       </c>
       <c r="G196" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I196" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J196" t="b">
         <v>1</v>
@@ -9848,22 +9870,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C197">
         <v>2023</v>
       </c>
       <c r="D197" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E197">
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I197" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J197" t="b">
         <v>1</v>
@@ -9878,25 +9900,25 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C198">
         <v>2024</v>
       </c>
       <c r="D198" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E198">
         <v>1405</v>
       </c>
       <c r="F198" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="G198" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="I198" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="J198" t="b">
         <v>1</v>
@@ -9911,28 +9933,28 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C199">
         <v>2024</v>
       </c>
       <c r="D199" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E199">
         <v>7232</v>
       </c>
       <c r="F199" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="G199" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H199" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I199" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="L199" t="b">
         <v>1</v>
@@ -9944,13 +9966,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="C200">
         <v>2024</v>
       </c>
       <c r="M200" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
@@ -9958,22 +9980,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C201">
         <v>2024</v>
       </c>
       <c r="D201" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E201" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="F201" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G201" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K201" t="b">
         <v>1</v>
@@ -9988,22 +10010,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C202">
         <v>2024</v>
       </c>
       <c r="D202" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E202" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="F202" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="G202" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="K202" t="b">
         <v>1</v>
@@ -10018,25 +10040,25 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C203">
         <v>2024</v>
       </c>
       <c r="D203" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="E203">
         <v>1399</v>
       </c>
       <c r="F203" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G203" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="I203" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="J203" t="b">
         <v>1</v>
@@ -10051,13 +10073,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C204">
         <v>2024</v>
       </c>
       <c r="M204" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
@@ -10065,25 +10087,25 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C205">
         <v>2024</v>
       </c>
       <c r="D205" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E205">
         <v>1400</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="G205" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="I205" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="J205" t="b">
         <v>1</v>
@@ -10104,7 +10126,7 @@
         <v>2020</v>
       </c>
       <c r="D206" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E206">
         <v>19003</v>
@@ -10137,22 +10159,22 @@
         <v>2020</v>
       </c>
       <c r="D207" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E207">
         <v>7230</v>
       </c>
       <c r="F207" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="G207" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="H207" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I207" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="L207" t="b">
         <v>1</v>
@@ -10170,7 +10192,7 @@
         <v>2020</v>
       </c>
       <c r="D208" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="E208">
         <v>216</v>
@@ -10203,7 +10225,7 @@
         <v>2020</v>
       </c>
       <c r="D209" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E209" s="2">
         <v>50078167</v>
@@ -10236,7 +10258,7 @@
         <v>2020</v>
       </c>
       <c r="D210" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E210">
         <v>169</v>
@@ -10269,7 +10291,7 @@
         <v>2020</v>
       </c>
       <c r="D211" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="E211" t="s">
         <v>70</v>
@@ -10302,7 +10324,7 @@
         <v>2020</v>
       </c>
       <c r="D212" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="E212" t="s">
         <v>76</v>
@@ -10335,7 +10357,7 @@
         <v>2020</v>
       </c>
       <c r="D213" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E213">
         <v>21498</v>
@@ -10368,7 +10390,7 @@
         <v>2020</v>
       </c>
       <c r="D214" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E214">
         <v>7231</v>
@@ -10380,7 +10402,7 @@
         <v>94</v>
       </c>
       <c r="H214" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I214" t="s">
         <v>95</v>
@@ -10401,7 +10423,7 @@
         <v>2020</v>
       </c>
       <c r="D215" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E215">
         <v>133</v>
@@ -10434,10 +10456,10 @@
         <v>2020</v>
       </c>
       <c r="D216" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E216" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F216" t="s">
         <v>104</v>
@@ -10446,7 +10468,7 @@
         <v>105</v>
       </c>
       <c r="I216" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="J216" t="b">
         <v>1</v>
@@ -10467,7 +10489,7 @@
         <v>2020</v>
       </c>
       <c r="D217" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E217">
         <v>191</v>
@@ -10500,7 +10522,7 @@
         <v>2020</v>
       </c>
       <c r="D218" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E218" t="s">
         <v>114</v>
@@ -10533,7 +10555,7 @@
         <v>2020</v>
       </c>
       <c r="D219" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E219" t="s">
         <v>120</v>
@@ -10566,19 +10588,19 @@
         <v>2020</v>
       </c>
       <c r="D220" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E220" t="s">
+        <v>210</v>
+      </c>
+      <c r="F220" t="s">
+        <v>211</v>
+      </c>
+      <c r="G220" t="s">
         <v>212</v>
       </c>
-      <c r="F220" t="s">
+      <c r="I220" t="s">
         <v>213</v>
-      </c>
-      <c r="G220" t="s">
-        <v>214</v>
-      </c>
-      <c r="I220" t="s">
-        <v>215</v>
       </c>
       <c r="J220" t="b">
         <v>1</v>
@@ -10599,19 +10621,19 @@
         <v>2020</v>
       </c>
       <c r="D221" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="E221">
         <v>1131</v>
       </c>
       <c r="F221" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G221" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I221" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J221" t="b">
         <v>1</v>
@@ -10632,7 +10654,7 @@
         <v>2020</v>
       </c>
       <c r="D222" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E222">
         <v>3400</v>
@@ -10659,25 +10681,25 @@
         <v>17</v>
       </c>
       <c r="B223" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C223">
         <v>2020</v>
       </c>
       <c r="D223" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E223">
         <v>3398</v>
       </c>
       <c r="F223" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="G223" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I223" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="J223" t="b">
         <v>1</v>
@@ -10698,19 +10720,19 @@
         <v>2020</v>
       </c>
       <c r="D224" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E224">
         <v>137</v>
       </c>
       <c r="F224" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="G224" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I224" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J224" t="b">
         <v>1</v>
@@ -10725,25 +10747,25 @@
         <v>19</v>
       </c>
       <c r="B225" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C225">
         <v>2020</v>
       </c>
       <c r="D225" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="E225">
         <v>2</v>
       </c>
       <c r="F225" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="G225" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I225" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J225" t="b">
         <v>1</v>
@@ -10764,19 +10786,19 @@
         <v>2020</v>
       </c>
       <c r="D226" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E226">
         <v>50018</v>
       </c>
       <c r="F226" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G226" t="s">
         <v>154</v>
       </c>
       <c r="H226" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I226" t="s">
         <v>155</v>
@@ -10791,25 +10813,25 @@
         <v>21</v>
       </c>
       <c r="B227" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C227">
         <v>2020</v>
       </c>
       <c r="D227" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E227">
         <v>215</v>
       </c>
       <c r="F227" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G227" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="I227" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="J227" t="b">
         <v>1</v>
@@ -10830,7 +10852,7 @@
         <v>2020</v>
       </c>
       <c r="D228" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E228" t="s">
         <v>158</v>
@@ -10863,7 +10885,7 @@
         <v>2020</v>
       </c>
       <c r="D229" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="E229" t="s">
         <v>164</v>
@@ -10896,22 +10918,22 @@
         <v>2020</v>
       </c>
       <c r="D230" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="E230">
         <v>50019</v>
       </c>
       <c r="F230" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G230" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H230" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I230" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L230" t="b">
         <v>1</v>
@@ -10929,19 +10951,19 @@
         <v>2020</v>
       </c>
       <c r="D231" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E231" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F231" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G231" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I231" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J231" t="b">
         <v>1</v>
@@ -10962,19 +10984,19 @@
         <v>2020</v>
       </c>
       <c r="D232" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="E232">
         <v>1150</v>
       </c>
       <c r="F232" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G232" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="I232" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J232" t="b">
         <v>1</v>
@@ -10995,19 +11017,19 @@
         <v>2020</v>
       </c>
       <c r="D233" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="E233">
         <v>128</v>
       </c>
       <c r="F233" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="G233" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="I233" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="J233" t="b">
         <v>1</v>
@@ -11022,25 +11044,25 @@
         <v>28</v>
       </c>
       <c r="B234" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C234">
         <v>2020</v>
       </c>
       <c r="D234" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="E234">
         <v>267</v>
       </c>
       <c r="F234" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="G234" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="I234" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="J234" t="b">
         <v>1</v>
@@ -11061,19 +11083,19 @@
         <v>2020</v>
       </c>
       <c r="D235" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E235">
         <v>344</v>
       </c>
       <c r="F235" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G235" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="I235" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="J235" t="b">
         <v>1</v>
@@ -11088,25 +11110,25 @@
         <v>30</v>
       </c>
       <c r="B236" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C236">
         <v>2020</v>
       </c>
       <c r="D236" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E236" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F236" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G236" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I236" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J236" t="b">
         <v>1</v>
@@ -11121,25 +11143,25 @@
         <v>31</v>
       </c>
       <c r="B237" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C237">
         <v>2020</v>
       </c>
       <c r="D237" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="E237" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="F237" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="G237" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="I237" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="J237" t="b">
         <v>1</v>
@@ -11154,25 +11176,25 @@
         <v>32</v>
       </c>
       <c r="B238" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C238">
         <v>2020</v>
       </c>
       <c r="D238" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="E238">
         <v>1214</v>
       </c>
       <c r="F238" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G238" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I238" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J238" t="b">
         <v>1</v>
@@ -11187,25 +11209,25 @@
         <v>33</v>
       </c>
       <c r="B239" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C239">
         <v>2020</v>
       </c>
       <c r="D239" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="E239">
         <v>3098</v>
       </c>
       <c r="F239" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G239" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I239" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J239" t="b">
         <v>1</v>
@@ -11220,25 +11242,25 @@
         <v>34</v>
       </c>
       <c r="B240" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C240">
         <v>2020</v>
       </c>
       <c r="D240" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E240">
         <v>3099</v>
       </c>
       <c r="F240" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G240" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I240" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J240" t="b">
         <v>1</v>
@@ -11253,25 +11275,25 @@
         <v>35</v>
       </c>
       <c r="B241" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C241">
         <v>2020</v>
       </c>
       <c r="D241" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E241">
         <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G241" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I241" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J241" t="b">
         <v>1</v>
@@ -11286,25 +11308,25 @@
         <v>36</v>
       </c>
       <c r="B242" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C242">
         <v>2020</v>
       </c>
       <c r="D242" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="E242">
         <v>18478</v>
       </c>
       <c r="F242" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="G242" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="I242" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="J242" t="b">
         <v>1</v>
@@ -11319,25 +11341,25 @@
         <v>37</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C243">
         <v>2020</v>
       </c>
       <c r="D243" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E243">
         <v>19075</v>
       </c>
       <c r="F243" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G243" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I243" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J243" t="b">
         <v>1</v>
@@ -11352,28 +11374,28 @@
         <v>38</v>
       </c>
       <c r="B244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C244">
         <v>2020</v>
       </c>
       <c r="D244" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="E244">
         <v>6914</v>
       </c>
       <c r="F244" t="s">
+        <v>251</v>
+      </c>
+      <c r="G244" t="s">
+        <v>252</v>
+      </c>
+      <c r="H244" t="s">
+        <v>495</v>
+      </c>
+      <c r="I244" t="s">
         <v>253</v>
-      </c>
-      <c r="G244" t="s">
-        <v>254</v>
-      </c>
-      <c r="H244" t="s">
-        <v>499</v>
-      </c>
-      <c r="I244" t="s">
-        <v>255</v>
       </c>
       <c r="L244" t="b">
         <v>1</v>
@@ -11385,25 +11407,25 @@
         <v>39</v>
       </c>
       <c r="B245" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C245">
         <v>2020</v>
       </c>
       <c r="D245" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="E245">
         <v>275</v>
       </c>
       <c r="F245" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="G245" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="I245" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="J245" t="b">
         <v>1</v>
@@ -11418,25 +11440,25 @@
         <v>40</v>
       </c>
       <c r="B246" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C246">
         <v>2020</v>
       </c>
       <c r="D246" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E246" t="s">
+        <v>256</v>
+      </c>
+      <c r="F246" t="s">
+        <v>257</v>
+      </c>
+      <c r="G246" t="s">
         <v>258</v>
       </c>
-      <c r="F246" t="s">
+      <c r="I246" t="s">
         <v>259</v>
-      </c>
-      <c r="G246" t="s">
-        <v>260</v>
-      </c>
-      <c r="I246" t="s">
-        <v>261</v>
       </c>
       <c r="J246" t="b">
         <v>1</v>
@@ -11451,25 +11473,25 @@
         <v>41</v>
       </c>
       <c r="B247" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C247">
         <v>2020</v>
       </c>
       <c r="D247" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="E247">
         <v>1132</v>
       </c>
       <c r="F247" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="G247" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I247" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J247" t="b">
         <v>1</v>
@@ -11484,33 +11506,33 @@
         <v>42</v>
       </c>
       <c r="B248" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C248">
         <v>2020</v>
       </c>
       <c r="D248" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="E248">
         <v>7205</v>
       </c>
       <c r="F248" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G248" t="s">
-        <v>201</v>
+        <v>975</v>
       </c>
       <c r="H248" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="I248" t="s">
-        <v>270</v>
+        <v>976</v>
       </c>
       <c r="L248" t="b">
         <v>1</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248" s="5" t="s">
         <v>982</v>
       </c>
     </row>
@@ -11519,25 +11541,25 @@
         <v>43</v>
       </c>
       <c r="B249" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C249">
         <v>2020</v>
       </c>
       <c r="D249" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E249" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F249" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G249" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I249" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J249" t="b">
         <v>1</v>
@@ -11552,25 +11574,25 @@
         <v>44</v>
       </c>
       <c r="B250" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C250">
         <v>2020</v>
       </c>
       <c r="D250" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="E250">
         <v>1130</v>
       </c>
       <c r="F250" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="G250" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I250" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J250" t="b">
         <v>1</v>
@@ -11585,25 +11607,25 @@
         <v>45</v>
       </c>
       <c r="B251" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C251">
         <v>2020</v>
       </c>
       <c r="D251" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="E251">
         <v>244</v>
       </c>
       <c r="F251" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G251" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I251" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J251" t="b">
         <v>1</v>
@@ -11618,25 +11640,25 @@
         <v>46</v>
       </c>
       <c r="B252" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C252">
         <v>2020</v>
       </c>
       <c r="D252" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E252">
         <v>1399</v>
       </c>
       <c r="F252" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="G252" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="I252" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="J252" t="b">
         <v>1</v>
@@ -11651,25 +11673,25 @@
         <v>47</v>
       </c>
       <c r="B253" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="C253">
         <v>2020</v>
       </c>
       <c r="D253" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E253">
         <v>245</v>
       </c>
       <c r="F253" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="G253" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="I253" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="J253" t="b">
         <v>1</v>
@@ -11684,25 +11706,25 @@
         <v>48</v>
       </c>
       <c r="B254" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C254">
         <v>2020</v>
       </c>
       <c r="D254" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="E254">
         <v>380</v>
       </c>
       <c r="F254" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G254" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I254" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J254" t="b">
         <v>1</v>
@@ -11717,28 +11739,28 @@
         <v>49</v>
       </c>
       <c r="B255" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C255">
         <v>2020</v>
       </c>
       <c r="D255" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="E255">
         <v>6389</v>
       </c>
       <c r="F255" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G255" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H255" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I255" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L255" t="b">
         <v>1</v>
@@ -11750,25 +11772,25 @@
         <v>50</v>
       </c>
       <c r="B256" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C256">
         <v>2020</v>
       </c>
       <c r="D256" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="E256" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F256" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G256" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I256" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J256" t="b">
         <v>1</v>
@@ -11783,25 +11805,25 @@
         <v>51</v>
       </c>
       <c r="B257" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C257">
         <v>2020</v>
       </c>
       <c r="D257" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="E257" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F257" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G257" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I257" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J257" t="b">
         <v>1</v>
@@ -11816,13 +11838,13 @@
         <v>52</v>
       </c>
       <c r="B258" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C258">
         <v>2020</v>
       </c>
       <c r="D258" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E258">
         <v>1148</v>
@@ -11849,25 +11871,25 @@
         <v>53</v>
       </c>
       <c r="B259" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C259">
         <v>2020</v>
       </c>
       <c r="D259" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="E259">
         <v>3460</v>
       </c>
       <c r="F259" t="s">
+        <v>219</v>
+      </c>
+      <c r="G259" t="s">
+        <v>220</v>
+      </c>
+      <c r="I259" t="s">
         <v>221</v>
-      </c>
-      <c r="G259" t="s">
-        <v>222</v>
-      </c>
-      <c r="I259" t="s">
-        <v>223</v>
       </c>
       <c r="J259" t="b">
         <v>1</v>
@@ -11882,25 +11904,25 @@
         <v>54</v>
       </c>
       <c r="B260" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C260">
         <v>2020</v>
       </c>
       <c r="D260" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="E260">
         <v>3468</v>
       </c>
       <c r="F260" t="s">
+        <v>224</v>
+      </c>
+      <c r="G260" t="s">
+        <v>225</v>
+      </c>
+      <c r="I260" t="s">
         <v>226</v>
-      </c>
-      <c r="G260" t="s">
-        <v>227</v>
-      </c>
-      <c r="I260" t="s">
-        <v>228</v>
       </c>
       <c r="J260" t="b">
         <v>1</v>
@@ -11915,19 +11937,19 @@
         <v>55</v>
       </c>
       <c r="B261" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C261">
         <v>2020</v>
       </c>
       <c r="D261" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="E261">
         <v>459</v>
       </c>
       <c r="F261" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="G261" t="s">
         <v>148</v>
@@ -11948,25 +11970,25 @@
         <v>56</v>
       </c>
       <c r="B262" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C262">
         <v>2020</v>
       </c>
       <c r="D262" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="E262">
         <v>19073</v>
       </c>
       <c r="F262" t="s">
+        <v>238</v>
+      </c>
+      <c r="G262" t="s">
+        <v>239</v>
+      </c>
+      <c r="I262" t="s">
         <v>240</v>
-      </c>
-      <c r="G262" t="s">
-        <v>241</v>
-      </c>
-      <c r="I262" t="s">
-        <v>242</v>
       </c>
       <c r="J262" t="b">
         <v>1</v>
@@ -11981,28 +12003,28 @@
         <v>57</v>
       </c>
       <c r="B263" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C263">
         <v>2020</v>
       </c>
       <c r="D263" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E263">
         <v>7233</v>
       </c>
       <c r="F263" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="G263" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H263" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I263" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L263" t="b">
         <v>1</v>
@@ -12014,25 +12036,25 @@
         <v>58</v>
       </c>
       <c r="B264" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C264">
         <v>2020</v>
       </c>
       <c r="D264" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="E264">
         <v>344</v>
       </c>
       <c r="F264" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="G264" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="I264" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="J264" t="b">
         <v>1</v>
@@ -12047,25 +12069,25 @@
         <v>59</v>
       </c>
       <c r="B265" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C265">
         <v>2020</v>
       </c>
       <c r="D265" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="E265" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F265" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G265" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I265" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J265" t="b">
         <v>1</v>
@@ -12080,25 +12102,25 @@
         <v>60</v>
       </c>
       <c r="B266" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C266">
         <v>2020</v>
       </c>
       <c r="D266" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="E266">
         <v>1131</v>
       </c>
       <c r="F266" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G266" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I266" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J266" t="b">
         <v>1</v>
@@ -12113,28 +12135,28 @@
         <v>61</v>
       </c>
       <c r="B267" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C267">
         <v>2020</v>
       </c>
       <c r="D267" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E267">
         <v>7232</v>
       </c>
       <c r="F267" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="G267" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H267" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I267" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="L267" t="b">
         <v>1</v>
@@ -12146,25 +12168,25 @@
         <v>62</v>
       </c>
       <c r="B268" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C268">
         <v>2020</v>
       </c>
       <c r="D268" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="E268" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F268" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G268" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I268" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J268" t="b">
         <v>1</v>
@@ -12179,25 +12201,25 @@
         <v>63</v>
       </c>
       <c r="B269" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C269">
         <v>2020</v>
       </c>
       <c r="D269" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="E269">
         <v>5967</v>
       </c>
       <c r="F269" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G269" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I269" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J269" t="b">
         <v>1</v>
@@ -12212,25 +12234,25 @@
         <v>64</v>
       </c>
       <c r="B270" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C270">
         <v>2020</v>
       </c>
       <c r="D270" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="E270">
         <v>134</v>
       </c>
       <c r="F270" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G270" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I270" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J270" t="b">
         <v>1</v>
@@ -12245,25 +12267,25 @@
         <v>65</v>
       </c>
       <c r="B271" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C271">
         <v>2020</v>
       </c>
       <c r="D271" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="E271">
         <v>244</v>
       </c>
       <c r="F271" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="G271" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I271" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J271" t="b">
         <v>1</v>
@@ -12278,25 +12300,25 @@
         <v>66</v>
       </c>
       <c r="B272" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C272">
         <v>2020</v>
       </c>
       <c r="D272" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E272">
         <v>379</v>
       </c>
       <c r="F272" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G272" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I272" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J272" t="b">
         <v>1</v>
@@ -12311,28 +12333,28 @@
         <v>67</v>
       </c>
       <c r="B273" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C273">
         <v>2020</v>
       </c>
       <c r="D273" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="E273">
         <v>6334</v>
       </c>
       <c r="F273" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G273" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H273" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I273" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L273" t="b">
         <v>1</v>
@@ -12344,25 +12366,25 @@
         <v>68</v>
       </c>
       <c r="B274" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C274">
         <v>2020</v>
       </c>
       <c r="D274" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="E274" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F274" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G274" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I274" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J274" t="b">
         <v>1</v>
